--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/hl7v2/teleradiologie/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T16:24:22+00:00</t>
+    <t>2025-11-06T14:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
